--- a/Original_Excel_Files/Z.xlsx
+++ b/Original_Excel_Files/Z.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8873A421-ECEB-4E3B-B5B9-6C67945E9A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF396E7-2445-46E6-964C-4CFB5FAE0683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30915" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Z5322 .B5 B52 1976-77</t>
   </si>
@@ -40,12 +40,6 @@
     <t>Z1003 .B66 1990</t>
   </si>
   <si>
-    <t>Bloom</t>
-  </si>
-  <si>
-    <t>Allan</t>
-  </si>
-  <si>
     <t>1990 H</t>
   </si>
   <si>
@@ -64,42 +58,24 @@
     <t>Z3301 .S475 1989</t>
   </si>
   <si>
-    <t>Shulman, Frank Joseph</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
     <t>Z40 .G28 1992</t>
   </si>
   <si>
-    <t>Gaur, Albertine</t>
-  </si>
-  <si>
     <t>A History of Writing</t>
   </si>
   <si>
     <t>Z7164 .S42 F73 1995</t>
   </si>
   <si>
-    <t>Frayser, Suzanne G. and Whitby, Thomas J.</t>
-  </si>
-  <si>
     <t>Studies in Human Sexuality</t>
   </si>
   <si>
     <t>Z6464.Z9 P5 1970</t>
   </si>
   <si>
-    <t>Pickus</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Woito</t>
-  </si>
-  <si>
     <t>1970 P</t>
   </si>
   <si>
@@ -109,22 +85,19 @@
     <t>Z7164 .U5 F45 1990</t>
   </si>
   <si>
-    <t>Fenton</t>
-  </si>
-  <si>
-    <t>Thomas P. (E)</t>
-  </si>
-  <si>
-    <t>Heffron</t>
-  </si>
-  <si>
-    <t>Mary J. (Ed)</t>
-  </si>
-  <si>
     <t>1990 P</t>
   </si>
   <si>
     <t>Third World Struggle for Peace With Justice: A Directory of Resources</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -199,24 +172,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,214 +538,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:G10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="69.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="B4" s="12">
+        <v>1989</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="10" t="s">
+      <c r="B5" s="12">
+        <v>1992</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="11">
-        <v>1989</v>
-      </c>
-      <c r="G3" s="10" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="B11" s="12">
+        <v>1995</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1992</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1995</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H18">
-    <sortCondition ref="A1:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
+    <sortCondition ref="A2:A19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
